--- a/Communication/Data Base Of SRCl.xlsx
+++ b/Communication/Data Base Of SRCl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRCL\Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C84B40-F2F4-4F2C-9659-DDF4C10DB5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1BB66-BAEF-4CD1-B82D-40B70DC71510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BGMEA" sheetId="2" r:id="rId1"/>
@@ -11877,7 +11877,7 @@
   </sheetPr>
   <dimension ref="A1:E845"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
@@ -31900,7 +31900,7 @@
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -35860,7 +35860,7 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
